--- a/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Configs/GameConfig/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE4C67E-D8F0-4E87-9CA5-46AD8950DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1FF307-55D2-45F4-92C1-896A9B5E4CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19875" yWindow="4710" windowWidth="14520" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -111,7 +111,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SItem</t>
+    <t>actor_attribute.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SActorAttribute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SActor2Attribute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAnimName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,17 +479,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="54.75" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
@@ -574,7 +586,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -584,11 +596,25 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Configs/GameConfig/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PCR\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1FF307-55D2-45F4-92C1-896A9B5E4CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C379A303-46C8-4AB2-958C-1DBAFFCC5B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>SAnimName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSkillAttribute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSkill2Attribute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,6 +624,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Configs/GameConfig/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C379A303-46C8-4AB2-958C-1DBAFFCC5B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5472338-7FEB-428D-A60E-8960F19F39DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>skill.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>character.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCharacter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCharacter2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,6 +650,20 @@
         <v>35</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Configs/GameConfig/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5472338-7FEB-428D-A60E-8960F19F39DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981F3394-5788-45DE-A00A-3EF80AAA6F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -103,38 +103,6 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>SAnim2Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim_name.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actor_attribute.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SActorAttribute</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SActor2Attribute</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAnimName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSkillAttribute</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSkill2Attribute</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>skill.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -147,7 +115,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SCharacter2</t>
+    <t>anim.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSkill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAnim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAnim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSkill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCharacter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -610,21 +598,21 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
@@ -633,35 +621,21 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Configs/GameConfig/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981F3394-5788-45DE-A00A-3EF80AAA6F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28405F8-7DBB-4CD2-A51A-985454C7D258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>TCharacter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEnemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEnemy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,6 +650,20 @@
         <v>28</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
